--- a/2021-07-30/web_tables/mae_ind_prod_wide.xlsx
+++ b/2021-07-30/web_tables/mae_ind_prod_wide.xlsx
@@ -1,21 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Kassandra\model\2021-07-30\web_tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1074C2C5-249C-4DE7-A645-D68ADCBE1DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>arima_fun</t>
+  </si>
+  <si>
+    <t>arima101_010_fun</t>
+  </si>
+  <si>
+    <t>ets_fun</t>
+  </si>
+  <si>
+    <t>tbats_fun</t>
+  </si>
+  <si>
+    <t>1 месяца</t>
+  </si>
+  <si>
+    <t>2 месяца</t>
+  </si>
+  <si>
+    <t>3 месяца</t>
+  </si>
+  <si>
+    <t>4 месяца</t>
+  </si>
+  <si>
+    <t>5 месяцев</t>
+  </si>
+  <si>
+    <t>6 месяцев</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,24 +102,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,9 +166,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +200,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,9 +252,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,45 +445,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>arima_fun</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>arima101_010_fun</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ets_fun</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tbats_fun</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1 месяца</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3.62</v>
@@ -396,18 +481,16 @@
       <c r="C2">
         <v>3.4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2.73</v>
       </c>
       <c r="E2">
         <v>3.08</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2 месяца</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3.24</v>
@@ -415,18 +498,16 @@
       <c r="C3">
         <v>3.09</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2.67</v>
       </c>
       <c r="E3">
         <v>3.29</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3 месяца</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3.18</v>
@@ -434,18 +515,16 @@
       <c r="C4">
         <v>2.99</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2.72</v>
       </c>
       <c r="E4">
         <v>3.21</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4 месяца</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>3.29</v>
@@ -460,11 +539,9 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5 месяцев</t>
-        </is>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <v>3.28</v>
@@ -479,11 +556,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6 месяцев</t>
-        </is>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3.38</v>
